--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2713062173376992</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.602882582797379</v>
+        <v>-1.601737483886633</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1486371007932661</v>
+        <v>0.1499057602050345</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.244522969344341</v>
+        <v>-0.2448094408244177</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2821702299278643</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.536223660019856</v>
+        <v>-1.534751952141439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09788757628428935</v>
+        <v>0.0989185588087413</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2479952555259303</v>
+        <v>-0.2482266363367615</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2981063038796844</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.492827952845595</v>
+        <v>-1.490879317173425</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09386123537200219</v>
+        <v>0.09480249880654</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2576172344144414</v>
+        <v>-0.2579745367549767</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.30769590546469</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.5624413095138</v>
+        <v>-1.560410824847323</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1204542884263773</v>
+        <v>0.1216001743466842</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2352897731787911</v>
+        <v>-0.2353700481539775</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3094791881483596</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.596193788541412</v>
+        <v>-1.594380518513673</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1059874786825027</v>
+        <v>0.1069507783847387</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2607936050012262</v>
+        <v>-0.2609919314105101</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3066307239954235</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.482725898125088</v>
+        <v>-1.480989755034293</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1191919250910942</v>
+        <v>0.1201678169463006</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2526260197807969</v>
+        <v>-0.2528243461900808</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3041982110184875</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.267370962977409</v>
+        <v>-1.265826850219413</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1565654351072577</v>
+        <v>0.1573005020369051</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2581524009156836</v>
+        <v>-0.2585868301931626</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3036526349240957</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.008033211523226</v>
+        <v>-1.007236757847848</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1784773552948846</v>
+        <v>0.1791872379185912</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2549807523862627</v>
+        <v>-0.2556135080730256</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3034816589227299</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5946351905334956</v>
+        <v>-0.5940937279557681</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1677598590979482</v>
+        <v>0.1683406721537081</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1638985619130771</v>
+        <v>-0.1643172509993431</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2995886431384032</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2200249357404171</v>
+        <v>-0.2200516940654792</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1377747948371701</v>
+        <v>0.1382800549751076</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1278204696337441</v>
+        <v>-0.1283414699628946</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2851881284387575</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2418599572714207</v>
+        <v>0.2415813558869504</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1016069834679229</v>
+        <v>0.1025450988642181</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03820998703897462</v>
+        <v>-0.03846970019398924</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2517448423659314</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7671211561833092</v>
+        <v>0.7666678386763747</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008091131152885961</v>
+        <v>-0.006926357003123451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05554803594042215</v>
+        <v>0.05532295120607615</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1943538460001799</v>
       </c>
       <c r="E14" t="n">
-        <v>1.312591186593578</v>
+        <v>1.311925376505267</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2318568374752343</v>
+        <v>-0.2309014078686048</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1592648779002884</v>
+        <v>0.1591767328294955</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1130966954288208</v>
       </c>
       <c r="E15" t="n">
-        <v>1.874308242373911</v>
+        <v>1.873541695061838</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4438913792865287</v>
+        <v>-0.4427769737486478</v>
       </c>
       <c r="G15" t="n">
-        <v>0.292790493979347</v>
+        <v>0.2927464214439506</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.01454921873022712</v>
       </c>
       <c r="E16" t="n">
-        <v>2.347252193732007</v>
+        <v>2.346062235276305</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6691634219079619</v>
+        <v>-0.6677625448900042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4366841740104133</v>
+        <v>0.4368163916166026</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.08971893023373133</v>
       </c>
       <c r="E17" t="n">
-        <v>2.803451729677708</v>
+        <v>2.801850952231344</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8833024272844352</v>
+        <v>-0.8815961905569453</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5555289137451004</v>
+        <v>0.5557776087662659</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1926995929348571</v>
       </c>
       <c r="E18" t="n">
-        <v>3.227533405453266</v>
+        <v>3.225474588442605</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.211033670587815</v>
+        <v>-1.209498214934986</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6771266129229424</v>
+        <v>0.6773091991410133</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2936361862082987</v>
       </c>
       <c r="E19" t="n">
-        <v>3.602052367137309</v>
+        <v>3.599894386922006</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.509955641914029</v>
+        <v>-1.508531154609252</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8379520166418403</v>
+        <v>0.8382133038159761</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3940065081491084</v>
       </c>
       <c r="E20" t="n">
-        <v>3.729406254241748</v>
+        <v>3.726160626813626</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.845103663316978</v>
+        <v>-1.843982174693051</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013582644215692</v>
+        <v>1.014103644544843</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4949966118351368</v>
       </c>
       <c r="E21" t="n">
-        <v>3.980093983614823</v>
+        <v>3.976522534228592</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.081153801871518</v>
+        <v>-2.08030934061294</v>
       </c>
       <c r="G21" t="n">
-        <v>1.18089458073347</v>
+        <v>1.181637517758724</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.596020718329912</v>
       </c>
       <c r="E22" t="n">
-        <v>4.184486662592203</v>
+        <v>4.181189092533078</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.376183223910755</v>
+        <v>-2.375616577027086</v>
       </c>
       <c r="G22" t="n">
-        <v>1.320960246261533</v>
+        <v>1.321794476395822</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6943309143502481</v>
       </c>
       <c r="E23" t="n">
-        <v>4.409111783354781</v>
+        <v>4.406042446068245</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.50879748291858</v>
+        <v>-2.507971122879897</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49117467403899</v>
+        <v>1.492396112877119</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7878139440898566</v>
       </c>
       <c r="E24" t="n">
-        <v>4.537136202604894</v>
+        <v>4.533944091826896</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.624205351901907</v>
+        <v>-2.623087798325784</v>
       </c>
       <c r="G24" t="n">
-        <v>1.594776612603001</v>
+        <v>1.596139713162047</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.874611743741608</v>
       </c>
       <c r="E25" t="n">
-        <v>4.677686666022318</v>
+        <v>4.674703899787453</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.819300299929763</v>
+        <v>-2.818609305535512</v>
       </c>
       <c r="G25" t="n">
-        <v>1.657951444055525</v>
+        <v>1.659322414710178</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9514498314806594</v>
       </c>
       <c r="E26" t="n">
-        <v>4.790016540613942</v>
+        <v>4.787474499733041</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.909043000130722</v>
+        <v>-2.908444085855067</v>
       </c>
       <c r="G26" t="n">
-        <v>1.700915869990549</v>
+        <v>1.702349801410054</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.014071512652112</v>
       </c>
       <c r="E27" t="n">
-        <v>4.898508956587834</v>
+        <v>4.896701982636581</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981253488349073</v>
+        <v>-2.980834012253247</v>
       </c>
       <c r="G27" t="n">
-        <v>1.750834312403479</v>
+        <v>1.752472866308753</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.058494274757333</v>
       </c>
       <c r="E28" t="n">
-        <v>4.896938085504776</v>
+        <v>4.895581281022214</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069265554526162</v>
+        <v>-3.069344255482227</v>
       </c>
       <c r="G28" t="n">
-        <v>1.790956059805433</v>
+        <v>1.793003858682246</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.081715075172677</v>
       </c>
       <c r="E29" t="n">
-        <v>4.90433754939401</v>
+        <v>4.903613500598212</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.08209144933608</v>
+        <v>-3.082573099187198</v>
       </c>
       <c r="G29" t="n">
-        <v>1.722538170659856</v>
+        <v>1.724438011739266</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.083412368439236</v>
       </c>
       <c r="E30" t="n">
-        <v>4.845653394494557</v>
+        <v>4.845085173591768</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.071537651127759</v>
+        <v>-3.072165684757158</v>
       </c>
       <c r="G30" t="n">
-        <v>1.686513595030648</v>
+        <v>1.688341031230478</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.065121742624508</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719827879956902</v>
+        <v>4.719462707520759</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.058863649163046</v>
+        <v>-3.060037080417976</v>
       </c>
       <c r="G31" t="n">
-        <v>1.627701944582369</v>
+        <v>1.629556139107261</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.029664060799777</v>
       </c>
       <c r="E32" t="n">
-        <v>4.637996199859599</v>
+        <v>4.638235450766038</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.019501365987119</v>
+        <v>-3.020898307957274</v>
       </c>
       <c r="G32" t="n">
-        <v>1.590218253227714</v>
+        <v>1.59202837521721</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9806997321171163</v>
       </c>
       <c r="E33" t="n">
-        <v>4.5586105454768</v>
+        <v>4.559389684941843</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.950310633452983</v>
+        <v>-2.951748499920292</v>
       </c>
       <c r="G33" t="n">
-        <v>1.560341796286306</v>
+        <v>1.562399039277846</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9222420063360829</v>
       </c>
       <c r="E34" t="n">
-        <v>4.355809199831055</v>
+        <v>4.356733149055258</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.877688539234412</v>
+        <v>-2.87931922304408</v>
       </c>
       <c r="G34" t="n">
-        <v>1.509869299142678</v>
+        <v>1.511959596535765</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8577331189068633</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131066027634379</v>
+        <v>4.13195062638055</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.84537471368367</v>
+        <v>-2.847278489810883</v>
       </c>
       <c r="G35" t="n">
-        <v>1.38940174569393</v>
+        <v>1.391218163759911</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7895731840220361</v>
       </c>
       <c r="E36" t="n">
-        <v>3.979033094727067</v>
+        <v>3.980290736004986</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.819727646121196</v>
+        <v>-2.821812434447359</v>
       </c>
       <c r="G36" t="n">
-        <v>1.362468704509354</v>
+        <v>1.364500763194953</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7184146692134875</v>
       </c>
       <c r="E37" t="n">
-        <v>3.782708837765475</v>
+        <v>3.784120732917281</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.756096349123495</v>
+        <v>-2.758114241637002</v>
       </c>
       <c r="G37" t="n">
-        <v>1.27579376757581</v>
+        <v>1.277647962100702</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.644280555480357</v>
       </c>
       <c r="E38" t="n">
-        <v>3.711616690132808</v>
+        <v>3.713559029728493</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.724338152322572</v>
+        <v>-2.726573259474819</v>
       </c>
       <c r="G38" t="n">
-        <v>1.232180845762811</v>
+        <v>1.234227070620501</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5681898560893914</v>
       </c>
       <c r="E39" t="n">
-        <v>3.500935804765832</v>
+        <v>3.503082766847286</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.740928313861081</v>
+        <v>-2.74352938045903</v>
       </c>
       <c r="G39" t="n">
-        <v>1.156786903871629</v>
+        <v>1.158910255666263</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4907551246853324</v>
       </c>
       <c r="E40" t="n">
-        <v>3.254663199028005</v>
+        <v>3.256997469384894</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.705388536121233</v>
+        <v>-2.708328803839823</v>
       </c>
       <c r="G40" t="n">
-        <v>1.092640902621262</v>
+        <v>1.094770550492382</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4124524672052378</v>
       </c>
       <c r="E41" t="n">
-        <v>3.082423008641435</v>
+        <v>3.084840702011753</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.644395295170831</v>
+        <v>-2.647452827313958</v>
       </c>
       <c r="G41" t="n">
-        <v>1.060571837043882</v>
+        <v>1.062747131469519</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3343561975164347</v>
       </c>
       <c r="E42" t="n">
-        <v>2.967031666858881</v>
+        <v>2.970016007112867</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.613569704699279</v>
+        <v>-2.616591821412176</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9766388414196439</v>
+        <v>0.9787354348892163</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2567186543284177</v>
       </c>
       <c r="E43" t="n">
-        <v>2.833046437196403</v>
+        <v>2.83624956610825</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.59630271493861</v>
+        <v>-2.599514500955624</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9245702888870171</v>
+        <v>0.9266558642227405</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1795128315125792</v>
       </c>
       <c r="E44" t="n">
-        <v>2.702955330840022</v>
+        <v>2.706729828692901</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.524960298265656</v>
+        <v>-2.528009960313176</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8606084478738424</v>
+        <v>0.8626279144064711</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1030703994636528</v>
       </c>
       <c r="E45" t="n">
-        <v>2.506609037610732</v>
+        <v>2.510268632067756</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.459659753989815</v>
+        <v>-2.462674000607106</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8302802474446207</v>
+        <v>0.8324350796216813</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.02701046715391915</v>
       </c>
       <c r="E46" t="n">
-        <v>2.380056326239035</v>
+        <v>2.383975633851074</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.420066090003057</v>
+        <v>-2.423078762601226</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7670959718773684</v>
+        <v>0.7691972874043049</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.04877416321636539</v>
       </c>
       <c r="E47" t="n">
-        <v>2.21680221101597</v>
+        <v>2.220801793603195</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.285684207522011</v>
+        <v>-2.288403325554058</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7108798789601144</v>
+        <v>0.712924529798684</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1231133694432343</v>
       </c>
       <c r="E48" t="n">
-        <v>2.128252617308958</v>
+        <v>2.132469414534922</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.244636149867171</v>
+        <v>-2.247385174262523</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6621104705057339</v>
+        <v>0.6641771576120017</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1951872809200925</v>
       </c>
       <c r="E49" t="n">
-        <v>1.974691311834863</v>
+        <v>1.979029308533167</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.192680926711278</v>
+        <v>-2.195454348403009</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5878624145348591</v>
+        <v>0.5898504006850619</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2637952614983284</v>
       </c>
       <c r="E50" t="n">
-        <v>1.880870328090614</v>
+        <v>1.885450723733599</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.145239990395275</v>
+        <v>-2.148018921153931</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5313189256403745</v>
+        <v>0.5332423770066039</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3275089235829063</v>
       </c>
       <c r="E51" t="n">
-        <v>1.756796696834966</v>
+        <v>1.761440053242803</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.095043733607435</v>
+        <v>-2.09789349522655</v>
       </c>
       <c r="G51" t="n">
-        <v>0.486648262977861</v>
+        <v>0.4884158864510817</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3862531633676244</v>
       </c>
       <c r="E52" t="n">
-        <v>1.644658852576141</v>
+        <v>1.649517849603596</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.97812480626766</v>
+        <v>-1.980500788131263</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4508881225610307</v>
+        <v>0.4527297249329525</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4402438150447591</v>
       </c>
       <c r="E53" t="n">
-        <v>1.600871214640677</v>
+        <v>1.605911223867082</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.91842934408277</v>
+        <v>-1.920872221759029</v>
       </c>
       <c r="G53" t="n">
-        <v>0.380043095930408</v>
+        <v>0.3817383145240489</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.489512115968333</v>
       </c>
       <c r="E54" t="n">
-        <v>1.556521651878909</v>
+        <v>1.561972480095973</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.907655183197467</v>
+        <v>-1.910249166709371</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3458947510937896</v>
+        <v>0.3475049726548802</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.5348443690630307</v>
       </c>
       <c r="E55" t="n">
-        <v>1.500654991206584</v>
+        <v>1.506469417840668</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.843253403839889</v>
+        <v>-1.845570359986443</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3189365256032727</v>
+        <v>0.3205530432408485</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5768158006059534</v>
       </c>
       <c r="E56" t="n">
-        <v>1.442921543856396</v>
+        <v>1.448636807285838</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.782109057053842</v>
+        <v>-1.784152920882851</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2124761683149794</v>
+        <v>0.2137212174399283</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.6154057916391071</v>
       </c>
       <c r="E57" t="n">
-        <v>1.450975799700091</v>
+        <v>1.457400945753241</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.779490676245559</v>
+        <v>-1.781664396652075</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2127327334317514</v>
+        <v>0.2142075893484102</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.6508943244968894</v>
       </c>
       <c r="E58" t="n">
-        <v>1.434980617389434</v>
+        <v>1.441840192720062</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.764971923870681</v>
+        <v>-1.766994538441553</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2080106760678494</v>
+        <v>0.2095831211700288</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6833608510362728</v>
       </c>
       <c r="E59" t="n">
-        <v>1.422709564319774</v>
+        <v>1.429783206250899</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.728882813457499</v>
+        <v>-1.730762979297893</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1344457443956191</v>
+        <v>0.1358796758151241</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.7125618737450174</v>
       </c>
       <c r="E60" t="n">
-        <v>1.454562989277536</v>
+        <v>1.462060042352291</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.760877900136178</v>
+        <v>-1.762903662745292</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1140763629468669</v>
+        <v>0.1155716811121026</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.7386748709258553</v>
       </c>
       <c r="E61" t="n">
-        <v>1.451292177543473</v>
+        <v>1.459168569226461</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.779256147396485</v>
+        <v>-1.781274039909992</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1260515004217226</v>
+        <v>0.1276932023652392</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7619975695509679</v>
       </c>
       <c r="E62" t="n">
-        <v>1.46070323786973</v>
+        <v>1.469130536245173</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.822581023710286</v>
+        <v>-1.824811408805169</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03903814937709923</v>
+        <v>0.04049883912166627</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7828944713211324</v>
       </c>
       <c r="E63" t="n">
-        <v>1.446249020278825</v>
+        <v>1.455087137644929</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.783789322465831</v>
+        <v>-1.785928414451678</v>
       </c>
       <c r="G63" t="n">
-        <v>0.005075538796794293</v>
+        <v>0.006416603088142479</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8017587418760154</v>
       </c>
       <c r="E64" t="n">
-        <v>1.447006123476171</v>
+        <v>1.456149600551807</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.811285862495833</v>
+        <v>-1.813432824577287</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02495674603762283</v>
+        <v>-0.02371799298915919</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8183967152151983</v>
       </c>
       <c r="E65" t="n">
-        <v>1.455671098738931</v>
+        <v>1.465442609443966</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.836736964677704</v>
+        <v>-1.838891796854765</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02844005035306125</v>
+        <v>-0.02704546941158884</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8328499378841238</v>
       </c>
       <c r="E66" t="n">
-        <v>1.41934116340019</v>
+        <v>1.42908276774192</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.842220060286755</v>
+        <v>-1.844306422632039</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03696651193314708</v>
+        <v>-0.03548693395912443</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8452833283681364</v>
       </c>
       <c r="E67" t="n">
-        <v>1.384256277186398</v>
+        <v>1.394251298606657</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.854287277880207</v>
+        <v>-1.856272115992167</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05592085019184996</v>
+        <v>-0.05449164082970893</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8552716989413393</v>
       </c>
       <c r="E68" t="n">
-        <v>1.334070251522847</v>
+        <v>1.344104623421138</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.884500574913573</v>
+        <v>-1.886368935610557</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0628969029374546</v>
+        <v>-0.06159518912413894</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.862507429678171</v>
       </c>
       <c r="E69" t="n">
-        <v>1.231253748500364</v>
+        <v>1.240889893560967</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.906052044722423</v>
+        <v>-1.9078645277406</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08532824943511071</v>
+        <v>-0.08396357485694302</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8659681977885938</v>
       </c>
       <c r="E70" t="n">
-        <v>1.247310317556753</v>
+        <v>1.257119604720699</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.911319499711855</v>
+        <v>-1.913134343758715</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05459867412995738</v>
+        <v>-0.053041969218991</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8638834556838593</v>
       </c>
       <c r="E71" t="n">
-        <v>1.240293340313994</v>
+        <v>1.250025500540996</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.946339851141674</v>
+        <v>-1.947899704090883</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07412910338705632</v>
+        <v>-0.07265582148951888</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8545533155938068</v>
       </c>
       <c r="E72" t="n">
-        <v>1.224228901161999</v>
+        <v>1.23382569574457</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.97564493914205</v>
+        <v>-1.977264604817869</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1088897416618607</v>
+        <v>-0.1075219190454504</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8371546728356231</v>
       </c>
       <c r="E73" t="n">
-        <v>1.229278354503132</v>
+        <v>1.238764967747211</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.975458417876176</v>
+        <v>-1.977055260274736</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09635267936070073</v>
+        <v>-0.09492819205592361</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.811408160557601</v>
       </c>
       <c r="E74" t="n">
-        <v>1.224545279005381</v>
+        <v>1.2337170884252</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.9837401194829</v>
+        <v>-1.98522835456209</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07765490621876986</v>
+        <v>-0.07606514690625617</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7780350480687986</v>
       </c>
       <c r="E75" t="n">
-        <v>1.170003942433191</v>
+        <v>1.178705120135741</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.016439579718361</v>
+        <v>-2.017945129007885</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04979791580999028</v>
+        <v>-0.04816408396208017</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7378029845344038</v>
       </c>
       <c r="E76" t="n">
-        <v>1.206510167913518</v>
+        <v>1.214735991841435</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.020236113838938</v>
+        <v>-2.021553567843467</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02998416311105723</v>
+        <v>-0.0283282949954489</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6907092507203908</v>
       </c>
       <c r="E77" t="n">
-        <v>1.143508478564336</v>
+        <v>1.150750540541441</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.017547689179757</v>
+        <v>-2.018953288255078</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03151253567784019</v>
+        <v>-0.02988657392553658</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.637352081429146</v>
       </c>
       <c r="E78" t="n">
-        <v>1.16453265196755</v>
+        <v>1.171206493041864</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.028233704994267</v>
+        <v>-2.029612545744527</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0260318010974712</v>
+        <v>-0.02454277900872075</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5788708727898352</v>
       </c>
       <c r="E79" t="n">
-        <v>1.152430018943869</v>
+        <v>1.158275925960379</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.00468795295873</v>
+        <v>-2.006263546099152</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04750771798849778</v>
+        <v>-0.04608008264547806</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.516222989128129</v>
       </c>
       <c r="E80" t="n">
-        <v>1.133773170299091</v>
+        <v>1.138591242829393</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.967328609114658</v>
+        <v>-1.968567362163122</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03093959271768675</v>
+        <v>-0.02963315684700717</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4504884803254955</v>
       </c>
       <c r="E81" t="n">
-        <v>1.159821612737497</v>
+        <v>1.164052576135553</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.920924164390032</v>
+        <v>-1.9220228297367</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01078270385031014</v>
+        <v>-0.009627373815275432</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3827038644536553</v>
       </c>
       <c r="E82" t="n">
-        <v>1.219686281977926</v>
+        <v>1.223421429352772</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.948454545831142</v>
+        <v>-1.94982000741887</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01692632876106717</v>
+        <v>0.01809425094907228</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3127068800948044</v>
       </c>
       <c r="E83" t="n">
-        <v>1.307486642583199</v>
+        <v>1.310818841062993</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.844613356360693</v>
+        <v>-1.845588461206338</v>
       </c>
       <c r="G83" t="n">
-        <v>0.009796022141575055</v>
+        <v>0.0108065424174501</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.241368847242225</v>
       </c>
       <c r="E84" t="n">
-        <v>1.303834918221782</v>
+        <v>1.306284091974526</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.783881402584427</v>
+        <v>-1.784779380493129</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02046787178399372</v>
+        <v>0.02140441316116763</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1709963190616629</v>
       </c>
       <c r="E85" t="n">
-        <v>1.413348872605398</v>
+        <v>1.415571387604675</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.755490032683966</v>
+        <v>-1.756555643629086</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01479353285170474</v>
+        <v>0.01549711939892615</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1041010278364886</v>
       </c>
       <c r="E86" t="n">
-        <v>1.657830244583185</v>
+        <v>1.660306176660991</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.651511903549964</v>
+        <v>-1.652356364808542</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03108463075716686</v>
+        <v>0.03161035314368129</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0432469620977379</v>
       </c>
       <c r="E87" t="n">
-        <v>1.594560971983383</v>
+        <v>1.596032679861799</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.531559841363441</v>
+        <v>-1.532449162166976</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05209463798828844</v>
+        <v>0.05254008539961653</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.008687436597750151</v>
       </c>
       <c r="E88" t="n">
-        <v>1.7415176932245</v>
+        <v>1.743208189760777</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.332351981371626</v>
+        <v>-1.332986311077511</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08879604183965657</v>
+        <v>0.08923204513625686</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04855070146554477</v>
       </c>
       <c r="E89" t="n">
-        <v>1.908486493573834</v>
+        <v>1.910395778767972</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.157993161247785</v>
+        <v>-1.158363842750852</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1124881776534745</v>
+        <v>0.1129367731030452</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0730088827006901</v>
       </c>
       <c r="E90" t="n">
-        <v>1.930398413761461</v>
+        <v>1.931928360347366</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9185195311044168</v>
+        <v>-0.9185250401713413</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1412329148466677</v>
+        <v>0.1417177127360283</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07965236952983668</v>
       </c>
       <c r="E91" t="n">
-        <v>1.968985492520148</v>
+        <v>1.970443034226472</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6675374601556582</v>
+        <v>-0.6670463661898124</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09496304875691267</v>
+        <v>0.09518498545301607</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06756571902102537</v>
       </c>
       <c r="E92" t="n">
-        <v>1.983915063885685</v>
+        <v>1.985739352047272</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4626033186005513</v>
+        <v>-0.4619453786078476</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1060598835620825</v>
+        <v>0.1063463550421593</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03824472062201085</v>
       </c>
       <c r="E93" t="n">
-        <v>1.95744321030365</v>
+        <v>1.959218703872477</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2422705479817597</v>
+        <v>-0.241486686459352</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0915914997990866</v>
+        <v>0.09171112525230544</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.004362642527270128</v>
       </c>
       <c r="E94" t="n">
-        <v>1.845436009631893</v>
+        <v>1.846943919950099</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05938684029695408</v>
+        <v>-0.05851798174199609</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06635682524639397</v>
+        <v>0.06646228452752112</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05314125788803922</v>
       </c>
       <c r="E95" t="n">
-        <v>1.794020675034606</v>
+        <v>1.795612008366241</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07196348135646702</v>
+        <v>0.07278354531866468</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05362458457419271</v>
+        <v>0.05385281734678131</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1001441809647482</v>
       </c>
       <c r="E96" t="n">
-        <v>1.666427537023729</v>
+        <v>1.667823691984323</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1455551713537594</v>
+        <v>0.1461832049831583</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005531776061651041</v>
+        <v>-0.005453075105586007</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1387546878255683</v>
       </c>
       <c r="E97" t="n">
-        <v>1.501536441914512</v>
+        <v>1.502633533242059</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1505322198153121</v>
+        <v>0.1507887849320842</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02067856206592756</v>
+        <v>-0.02064078560701635</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1692616693840083</v>
       </c>
       <c r="E98" t="n">
-        <v>1.38838492934157</v>
+        <v>1.389299434451045</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1785418900788579</v>
+        <v>0.1788016032338725</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05869269786446047</v>
+        <v>-0.05872732628512908</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1954066896163024</v>
       </c>
       <c r="E99" t="n">
-        <v>1.249432095332266</v>
+        <v>1.250067999057272</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1818095537746781</v>
+        <v>0.1819543635338378</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09815020919722611</v>
+        <v>-0.09825881651659586</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.225070135452577</v>
       </c>
       <c r="E100" t="n">
-        <v>1.090904759530467</v>
+        <v>1.091285672157822</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2369679058424181</v>
+        <v>0.2374338155023231</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1450024623618624</v>
+        <v>-0.1452369912109362</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2574867790498123</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9104009687570683</v>
+        <v>0.9102813433038495</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2192365804409659</v>
+        <v>0.2196222151256846</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1705692549491495</v>
+        <v>-0.1708824847542883</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2967567910465521</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8500530756463999</v>
+        <v>0.8501144623921306</v>
       </c>
       <c r="F102" t="n">
-        <v>0.257189329493768</v>
+        <v>0.2576505170963092</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2084905236195256</v>
+        <v>-0.2088383818453331</v>
       </c>
     </row>
   </sheetData>
